--- a/Projet_R.O.I_Gantt_Données_RECYCLAGE (1).xlsx
+++ b/Projet_R.O.I_Gantt_Données_RECYCLAGE (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cojan\OneDrive\Documents\Yann\COURS_ECOLE\ICAM\2024-2025\JJN\Gantt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{319F355D-4CAA-43B6-BBF5-51DAA8C4CCA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAD8F11A-4EBA-4AC2-BD77-619D9E8C739D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{51C4A844-86E1-494C-AF45-73D3C647F81B}"/>
   </bookViews>
@@ -71,10 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
-  <si>
-    <t xml:space="preserve">Entreprise : La trinitaine </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
   <si>
     <t>Yann COJAN</t>
   </si>
@@ -157,13 +154,7 @@
     <t>Mettre en rose un service :</t>
   </si>
   <si>
-    <t>Gantts : Projet recyclage galette</t>
-  </si>
-  <si>
     <t>couleur</t>
-  </si>
-  <si>
-    <t>Periode : nov 2023 - fév 2024</t>
   </si>
   <si>
     <t>H.CAMUS</t>
@@ -186,6 +177,27 @@
   <si>
     <t>Numériss</t>
   </si>
+  <si>
+    <t>Periode : oct 2024 - jan 2025</t>
+  </si>
+  <si>
+    <t>Entreprise : Numériss</t>
+  </si>
+  <si>
+    <t>Gantts : Jumeau numérique</t>
+  </si>
+  <si>
+    <t>Y.COJAN</t>
+  </si>
+  <si>
+    <t>P.GIBORY</t>
+  </si>
+  <si>
+    <t>H.LELAY</t>
+  </si>
+  <si>
+    <t>Y.BAILBLED</t>
+  </si>
 </sst>
 </file>
 
@@ -193,7 +205,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
-    <numFmt numFmtId="166" formatCode="[$-40C]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="165" formatCode="[$-40C]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="22" x14ac:knownFonts="1">
     <font>
@@ -753,7 +765,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -762,7 +774,7 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -778,7 +790,7 @@
     <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -863,68 +875,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -949,7 +901,67 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1423,7 +1435,7 @@
                   <a14:compatExt spid="_x0000_s1025"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000001040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2380,8 +2392,8 @@
   </sheetPr>
   <dimension ref="A1:CC60"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AL5" sqref="AL5:BK5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -2410,29 +2422,29 @@
     </row>
     <row r="2" spans="1:81" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="10"/>
-      <c r="B2" s="86" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
+      <c r="B2" s="66" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
       <c r="F2" s="46"/>
       <c r="G2" s="14"/>
-      <c r="H2" s="72" t="s">
-        <v>30</v>
-      </c>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72"/>
-      <c r="O2" s="72"/>
-      <c r="P2" s="72"/>
-      <c r="Q2" s="72"/>
-      <c r="R2" s="72"/>
-      <c r="S2" s="72"/>
-      <c r="T2" s="72"/>
+      <c r="H2" s="94" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="94"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="94"/>
+      <c r="N2" s="94"/>
+      <c r="O2" s="94"/>
+      <c r="P2" s="94"/>
+      <c r="Q2" s="94"/>
+      <c r="R2" s="94"/>
+      <c r="S2" s="94"/>
+      <c r="T2" s="94"/>
       <c r="U2" s="14"/>
       <c r="V2" s="14"/>
       <c r="W2" s="14"/>
@@ -2446,72 +2458,72 @@
       <c r="AE2" s="15"/>
       <c r="AF2" s="15"/>
       <c r="AG2" s="15"/>
-      <c r="AH2" s="94" t="s">
-        <v>37</v>
-      </c>
-      <c r="AI2" s="94"/>
-      <c r="AJ2" s="94"/>
-      <c r="AK2" s="94"/>
-      <c r="AL2" s="94"/>
-      <c r="AM2" s="94"/>
-      <c r="AN2" s="94"/>
-      <c r="AO2" s="94"/>
-      <c r="AP2" s="94"/>
-      <c r="AQ2" s="94"/>
-      <c r="AR2" s="94"/>
-      <c r="AS2" s="94"/>
-      <c r="AT2" s="94"/>
-      <c r="AU2" s="94"/>
-      <c r="AV2" s="94"/>
-      <c r="AW2" s="94"/>
-      <c r="AX2" s="94"/>
-      <c r="AY2" s="94"/>
-      <c r="AZ2" s="94"/>
-      <c r="BA2" s="94"/>
-      <c r="BB2" s="94"/>
-      <c r="BC2" s="94"/>
-      <c r="BD2" s="94"/>
-      <c r="BE2" s="94"/>
-      <c r="BF2" s="94"/>
-      <c r="BG2" s="94"/>
-      <c r="BH2" s="94"/>
-      <c r="BI2" s="94"/>
-      <c r="BJ2" s="94"/>
-      <c r="BK2" s="94"/>
-      <c r="BL2" s="94"/>
-      <c r="BM2" s="94"/>
-      <c r="BN2" s="94"/>
-      <c r="BO2" s="94"/>
-      <c r="BP2" s="94"/>
-      <c r="BQ2" s="94"/>
-      <c r="BR2" s="94"/>
-      <c r="BS2" s="94"/>
-      <c r="BT2" s="94"/>
-      <c r="BU2" s="94"/>
-      <c r="BV2" s="94"/>
-      <c r="BW2" s="94"/>
+      <c r="AH2" s="76" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI2" s="76"/>
+      <c r="AJ2" s="76"/>
+      <c r="AK2" s="76"/>
+      <c r="AL2" s="76"/>
+      <c r="AM2" s="76"/>
+      <c r="AN2" s="76"/>
+      <c r="AO2" s="76"/>
+      <c r="AP2" s="76"/>
+      <c r="AQ2" s="76"/>
+      <c r="AR2" s="76"/>
+      <c r="AS2" s="76"/>
+      <c r="AT2" s="76"/>
+      <c r="AU2" s="76"/>
+      <c r="AV2" s="76"/>
+      <c r="AW2" s="76"/>
+      <c r="AX2" s="76"/>
+      <c r="AY2" s="76"/>
+      <c r="AZ2" s="76"/>
+      <c r="BA2" s="76"/>
+      <c r="BB2" s="76"/>
+      <c r="BC2" s="76"/>
+      <c r="BD2" s="76"/>
+      <c r="BE2" s="76"/>
+      <c r="BF2" s="76"/>
+      <c r="BG2" s="76"/>
+      <c r="BH2" s="76"/>
+      <c r="BI2" s="76"/>
+      <c r="BJ2" s="76"/>
+      <c r="BK2" s="76"/>
+      <c r="BL2" s="76"/>
+      <c r="BM2" s="76"/>
+      <c r="BN2" s="76"/>
+      <c r="BO2" s="76"/>
+      <c r="BP2" s="76"/>
+      <c r="BQ2" s="76"/>
+      <c r="BR2" s="76"/>
+      <c r="BS2" s="76"/>
+      <c r="BT2" s="76"/>
+      <c r="BU2" s="76"/>
+      <c r="BV2" s="76"/>
+      <c r="BW2" s="76"/>
     </row>
     <row r="3" spans="1:81" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="10"/>
-      <c r="B3" s="86"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
       <c r="F3" s="46"/>
       <c r="G3" s="14"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
-      <c r="L3" s="72"/>
-      <c r="M3" s="72"/>
-      <c r="N3" s="72"/>
-      <c r="O3" s="72"/>
-      <c r="P3" s="72"/>
-      <c r="Q3" s="72"/>
-      <c r="R3" s="72"/>
-      <c r="S3" s="72"/>
-      <c r="T3" s="72"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="94"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="94"/>
+      <c r="N3" s="94"/>
+      <c r="O3" s="94"/>
+      <c r="P3" s="94"/>
+      <c r="Q3" s="94"/>
+      <c r="R3" s="94"/>
+      <c r="S3" s="94"/>
+      <c r="T3" s="94"/>
       <c r="U3" s="14"/>
       <c r="V3" s="14"/>
       <c r="W3" s="14"/>
@@ -2525,48 +2537,48 @@
       <c r="AE3" s="15"/>
       <c r="AF3" s="15"/>
       <c r="AG3" s="15"/>
-      <c r="AH3" s="94"/>
-      <c r="AI3" s="94"/>
-      <c r="AJ3" s="94"/>
-      <c r="AK3" s="94"/>
-      <c r="AL3" s="94"/>
-      <c r="AM3" s="94"/>
-      <c r="AN3" s="94"/>
-      <c r="AO3" s="94"/>
-      <c r="AP3" s="94"/>
-      <c r="AQ3" s="94"/>
-      <c r="AR3" s="94"/>
-      <c r="AS3" s="94"/>
-      <c r="AT3" s="94"/>
-      <c r="AU3" s="94"/>
-      <c r="AV3" s="94"/>
-      <c r="AW3" s="94"/>
-      <c r="AX3" s="94"/>
-      <c r="AY3" s="94"/>
-      <c r="AZ3" s="94"/>
-      <c r="BA3" s="94"/>
-      <c r="BB3" s="94"/>
-      <c r="BC3" s="94"/>
-      <c r="BD3" s="94"/>
-      <c r="BE3" s="94"/>
-      <c r="BF3" s="94"/>
-      <c r="BG3" s="94"/>
-      <c r="BH3" s="94"/>
-      <c r="BI3" s="94"/>
-      <c r="BJ3" s="94"/>
-      <c r="BK3" s="94"/>
-      <c r="BL3" s="94"/>
-      <c r="BM3" s="94"/>
-      <c r="BN3" s="94"/>
-      <c r="BO3" s="94"/>
-      <c r="BP3" s="94"/>
-      <c r="BQ3" s="94"/>
-      <c r="BR3" s="94"/>
-      <c r="BS3" s="94"/>
-      <c r="BT3" s="94"/>
-      <c r="BU3" s="94"/>
-      <c r="BV3" s="94"/>
-      <c r="BW3" s="94"/>
+      <c r="AH3" s="76"/>
+      <c r="AI3" s="76"/>
+      <c r="AJ3" s="76"/>
+      <c r="AK3" s="76"/>
+      <c r="AL3" s="76"/>
+      <c r="AM3" s="76"/>
+      <c r="AN3" s="76"/>
+      <c r="AO3" s="76"/>
+      <c r="AP3" s="76"/>
+      <c r="AQ3" s="76"/>
+      <c r="AR3" s="76"/>
+      <c r="AS3" s="76"/>
+      <c r="AT3" s="76"/>
+      <c r="AU3" s="76"/>
+      <c r="AV3" s="76"/>
+      <c r="AW3" s="76"/>
+      <c r="AX3" s="76"/>
+      <c r="AY3" s="76"/>
+      <c r="AZ3" s="76"/>
+      <c r="BA3" s="76"/>
+      <c r="BB3" s="76"/>
+      <c r="BC3" s="76"/>
+      <c r="BD3" s="76"/>
+      <c r="BE3" s="76"/>
+      <c r="BF3" s="76"/>
+      <c r="BG3" s="76"/>
+      <c r="BH3" s="76"/>
+      <c r="BI3" s="76"/>
+      <c r="BJ3" s="76"/>
+      <c r="BK3" s="76"/>
+      <c r="BL3" s="76"/>
+      <c r="BM3" s="76"/>
+      <c r="BN3" s="76"/>
+      <c r="BO3" s="76"/>
+      <c r="BP3" s="76"/>
+      <c r="BQ3" s="76"/>
+      <c r="BR3" s="76"/>
+      <c r="BS3" s="76"/>
+      <c r="BT3" s="76"/>
+      <c r="BU3" s="76"/>
+      <c r="BV3" s="76"/>
+      <c r="BW3" s="76"/>
     </row>
     <row r="4" spans="1:81" x14ac:dyDescent="0.25">
       <c r="B4" s="12"/>
@@ -2579,116 +2591,116 @@
       <c r="V4" s="13"/>
       <c r="W4" s="13"/>
       <c r="X4" s="13"/>
-      <c r="Y4" s="66" t="s">
+      <c r="Y4" s="88" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z4" s="88"/>
+      <c r="AA4" s="88"/>
+      <c r="AB4" s="88"/>
+      <c r="AC4" s="88" t="s">
         <v>23</v>
       </c>
-      <c r="Z4" s="66"/>
-      <c r="AA4" s="66"/>
-      <c r="AB4" s="66"/>
-      <c r="AC4" s="66" t="s">
-        <v>24</v>
-      </c>
-      <c r="AD4" s="66"/>
-      <c r="AE4" s="66"/>
-      <c r="AF4" s="66"/>
-      <c r="AG4" s="66"/>
-      <c r="AH4" s="66"/>
+      <c r="AD4" s="88"/>
+      <c r="AE4" s="88"/>
+      <c r="AF4" s="88"/>
+      <c r="AG4" s="88"/>
+      <c r="AH4" s="88"/>
     </row>
     <row r="5" spans="1:81" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="81"/>
+      <c r="B5" s="78" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="79"/>
       <c r="D5" s="29"/>
       <c r="E5" s="11"/>
       <c r="F5" s="48"/>
-      <c r="P5" s="67" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q5" s="67"/>
-      <c r="R5" s="67"/>
-      <c r="S5" s="67"/>
-      <c r="T5" s="67"/>
-      <c r="U5" s="67"/>
-      <c r="V5" s="67"/>
-      <c r="W5" s="67"/>
-      <c r="X5" s="67"/>
-      <c r="Y5" s="84"/>
-      <c r="Z5" s="84"/>
-      <c r="AA5" s="84"/>
-      <c r="AB5" s="84"/>
-      <c r="AC5" s="84"/>
-      <c r="AD5" s="84"/>
-      <c r="AE5" s="84"/>
-      <c r="AF5" s="84"/>
-      <c r="AG5" s="84"/>
-      <c r="AH5" s="84"/>
+      <c r="P5" s="82" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q5" s="82"/>
+      <c r="R5" s="82"/>
+      <c r="S5" s="82"/>
+      <c r="T5" s="82"/>
+      <c r="U5" s="82"/>
+      <c r="V5" s="82"/>
+      <c r="W5" s="82"/>
+      <c r="X5" s="82"/>
+      <c r="Y5" s="83"/>
+      <c r="Z5" s="83"/>
+      <c r="AA5" s="83"/>
+      <c r="AB5" s="83"/>
+      <c r="AC5" s="83"/>
+      <c r="AD5" s="83"/>
+      <c r="AE5" s="83"/>
+      <c r="AF5" s="83"/>
+      <c r="AG5" s="83"/>
+      <c r="AH5" s="83"/>
       <c r="AI5" s="45"/>
-      <c r="AL5" s="85"/>
-      <c r="AM5" s="85"/>
-      <c r="AN5" s="85"/>
-      <c r="AO5" s="85"/>
-      <c r="AP5" s="85"/>
-      <c r="AQ5" s="85"/>
-      <c r="AR5" s="85"/>
-      <c r="AS5" s="85"/>
-      <c r="AT5" s="85"/>
-      <c r="AU5" s="85"/>
-      <c r="AV5" s="85"/>
-      <c r="AW5" s="85"/>
-      <c r="AX5" s="85"/>
-      <c r="AY5" s="85"/>
-      <c r="AZ5" s="85"/>
-      <c r="BA5" s="85"/>
-      <c r="BB5" s="85"/>
-      <c r="BC5" s="85"/>
-      <c r="BD5" s="85"/>
-      <c r="BE5" s="85"/>
-      <c r="BF5" s="85"/>
-      <c r="BG5" s="85"/>
-      <c r="BH5" s="85"/>
-      <c r="BI5" s="85"/>
-      <c r="BJ5" s="85"/>
-      <c r="BK5" s="85"/>
+      <c r="AL5" s="84"/>
+      <c r="AM5" s="84"/>
+      <c r="AN5" s="84"/>
+      <c r="AO5" s="84"/>
+      <c r="AP5" s="84"/>
+      <c r="AQ5" s="84"/>
+      <c r="AR5" s="84"/>
+      <c r="AS5" s="84"/>
+      <c r="AT5" s="84"/>
+      <c r="AU5" s="84"/>
+      <c r="AV5" s="84"/>
+      <c r="AW5" s="84"/>
+      <c r="AX5" s="84"/>
+      <c r="AY5" s="84"/>
+      <c r="AZ5" s="84"/>
+      <c r="BA5" s="84"/>
+      <c r="BB5" s="84"/>
+      <c r="BC5" s="84"/>
+      <c r="BD5" s="84"/>
+      <c r="BE5" s="84"/>
+      <c r="BF5" s="84"/>
+      <c r="BG5" s="84"/>
+      <c r="BH5" s="84"/>
+      <c r="BI5" s="84"/>
+      <c r="BJ5" s="84"/>
+      <c r="BK5" s="84"/>
     </row>
     <row r="6" spans="1:81" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="82" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="83"/>
+      <c r="B6" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="81"/>
       <c r="D6" s="29"/>
       <c r="E6" s="11"/>
       <c r="F6" s="48"/>
-      <c r="P6" s="67" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q6" s="67"/>
-      <c r="R6" s="67"/>
-      <c r="S6" s="67"/>
-      <c r="T6" s="67"/>
-      <c r="U6" s="67"/>
-      <c r="V6" s="67"/>
-      <c r="W6" s="67"/>
-      <c r="X6" s="67"/>
-      <c r="Y6" s="68"/>
-      <c r="Z6" s="68"/>
-      <c r="AA6" s="68"/>
-      <c r="AB6" s="68"/>
-      <c r="AC6" s="68"/>
-      <c r="BR6" s="67">
+      <c r="P6" s="82" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q6" s="82"/>
+      <c r="R6" s="82"/>
+      <c r="S6" s="82"/>
+      <c r="T6" s="82"/>
+      <c r="U6" s="82"/>
+      <c r="V6" s="82"/>
+      <c r="W6" s="82"/>
+      <c r="X6" s="82"/>
+      <c r="Y6" s="93"/>
+      <c r="Z6" s="93"/>
+      <c r="AA6" s="93"/>
+      <c r="AB6" s="93"/>
+      <c r="AC6" s="93"/>
+      <c r="BR6" s="82">
         <f>$N$11/5</f>
         <v>0</v>
       </c>
-      <c r="BS6" s="67"/>
+      <c r="BS6" s="82"/>
     </row>
     <row r="7" spans="1:81" x14ac:dyDescent="0.25">
       <c r="B7" s="12"/>
     </row>
     <row r="8" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="B8" s="76" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="66"/>
+      <c r="B8" s="87" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="88"/>
       <c r="D8" s="30"/>
       <c r="E8" s="7"/>
       <c r="F8" s="49"/>
@@ -2706,102 +2718,102 @@
       <c r="M8" s="1"/>
       <c r="N8" s="2"/>
       <c r="O8" s="25"/>
-      <c r="P8" s="69" t="str">
+      <c r="P8" s="77" t="str">
         <f>IF(P12="L",TEXT(P9,"mmm"),"")</f>
         <v>sept</v>
       </c>
-      <c r="Q8" s="69"/>
-      <c r="R8" s="69"/>
-      <c r="S8" s="69"/>
-      <c r="T8" s="77"/>
-      <c r="U8" s="69" t="str">
+      <c r="Q8" s="77"/>
+      <c r="R8" s="77"/>
+      <c r="S8" s="77"/>
+      <c r="T8" s="89"/>
+      <c r="U8" s="77" t="str">
         <f t="shared" ref="U8" si="0">IF(U12="L",TEXT(U9,"mmm"),"")</f>
         <v>oct</v>
       </c>
-      <c r="V8" s="69"/>
-      <c r="W8" s="69"/>
-      <c r="X8" s="69"/>
-      <c r="Y8" s="69"/>
-      <c r="Z8" s="69" t="str">
+      <c r="V8" s="77"/>
+      <c r="W8" s="77"/>
+      <c r="X8" s="77"/>
+      <c r="Y8" s="77"/>
+      <c r="Z8" s="77" t="str">
         <f t="shared" ref="Z8" si="1">IF(Z12="L",TEXT(Z9,"mmm"),"")</f>
         <v>oct</v>
       </c>
-      <c r="AA8" s="69"/>
-      <c r="AB8" s="69"/>
-      <c r="AC8" s="69"/>
-      <c r="AD8" s="69"/>
-      <c r="AE8" s="69" t="str">
+      <c r="AA8" s="77"/>
+      <c r="AB8" s="77"/>
+      <c r="AC8" s="77"/>
+      <c r="AD8" s="77"/>
+      <c r="AE8" s="77" t="str">
         <f t="shared" ref="AE8" si="2">IF(AE12="L",TEXT(AE9,"mmm"),"")</f>
         <v>oct</v>
       </c>
-      <c r="AF8" s="69"/>
-      <c r="AG8" s="69"/>
-      <c r="AH8" s="69"/>
-      <c r="AI8" s="69"/>
-      <c r="AJ8" s="69" t="str">
+      <c r="AF8" s="77"/>
+      <c r="AG8" s="77"/>
+      <c r="AH8" s="77"/>
+      <c r="AI8" s="77"/>
+      <c r="AJ8" s="77" t="str">
         <f t="shared" ref="AJ8" si="3">IF(AJ12="L",TEXT(AJ9,"mmm"),"")</f>
         <v>oct</v>
       </c>
-      <c r="AK8" s="69"/>
-      <c r="AL8" s="69"/>
-      <c r="AM8" s="69"/>
-      <c r="AN8" s="69"/>
-      <c r="AO8" s="69" t="str">
+      <c r="AK8" s="77"/>
+      <c r="AL8" s="77"/>
+      <c r="AM8" s="77"/>
+      <c r="AN8" s="77"/>
+      <c r="AO8" s="77" t="str">
         <f t="shared" ref="AO8" si="4">IF(AO12="L",TEXT(AO9,"mmm"),"")</f>
         <v>nov</v>
       </c>
-      <c r="AP8" s="69"/>
-      <c r="AQ8" s="69"/>
-      <c r="AR8" s="69"/>
-      <c r="AS8" s="69"/>
-      <c r="AT8" s="69" t="str">
+      <c r="AP8" s="77"/>
+      <c r="AQ8" s="77"/>
+      <c r="AR8" s="77"/>
+      <c r="AS8" s="77"/>
+      <c r="AT8" s="77" t="str">
         <f t="shared" ref="AT8" si="5">IF(AT12="L",TEXT(AT9,"mmm"),"")</f>
         <v>nov</v>
       </c>
-      <c r="AU8" s="69"/>
-      <c r="AV8" s="69"/>
-      <c r="AW8" s="69"/>
-      <c r="AX8" s="69"/>
-      <c r="AY8" s="69" t="str">
+      <c r="AU8" s="77"/>
+      <c r="AV8" s="77"/>
+      <c r="AW8" s="77"/>
+      <c r="AX8" s="77"/>
+      <c r="AY8" s="77" t="str">
         <f t="shared" ref="AY8" si="6">IF(AY12="L",TEXT(AY9,"mmm"),"")</f>
         <v>nov</v>
       </c>
-      <c r="AZ8" s="69"/>
-      <c r="BA8" s="69"/>
-      <c r="BB8" s="69"/>
-      <c r="BC8" s="69"/>
-      <c r="BD8" s="91" t="str">
+      <c r="AZ8" s="77"/>
+      <c r="BA8" s="77"/>
+      <c r="BB8" s="77"/>
+      <c r="BC8" s="77"/>
+      <c r="BD8" s="71" t="str">
         <f t="shared" ref="BD8" si="7">IF(BD12="L",TEXT(BD9,"mmm"),"")</f>
         <v>nov</v>
       </c>
-      <c r="BE8" s="92"/>
-      <c r="BF8" s="92"/>
-      <c r="BG8" s="92"/>
-      <c r="BH8" s="93"/>
-      <c r="BI8" s="69" t="str">
+      <c r="BE8" s="72"/>
+      <c r="BF8" s="72"/>
+      <c r="BG8" s="72"/>
+      <c r="BH8" s="73"/>
+      <c r="BI8" s="77" t="str">
         <f t="shared" ref="BI8" si="8">IF(BI12="L",TEXT(BI9,"mmm"),"")</f>
         <v>déc</v>
       </c>
-      <c r="BJ8" s="69"/>
-      <c r="BK8" s="69"/>
-      <c r="BL8" s="69"/>
-      <c r="BM8" s="69"/>
-      <c r="BN8" s="69" t="str">
+      <c r="BJ8" s="77"/>
+      <c r="BK8" s="77"/>
+      <c r="BL8" s="77"/>
+      <c r="BM8" s="77"/>
+      <c r="BN8" s="77" t="str">
         <f t="shared" ref="BN8" si="9">IF(BN12="L",TEXT(BN9,"mmm"),"")</f>
         <v>déc</v>
       </c>
-      <c r="BO8" s="69"/>
-      <c r="BP8" s="69"/>
-      <c r="BQ8" s="69"/>
-      <c r="BR8" s="69"/>
-      <c r="BS8" s="69" t="str">
+      <c r="BO8" s="77"/>
+      <c r="BP8" s="77"/>
+      <c r="BQ8" s="77"/>
+      <c r="BR8" s="77"/>
+      <c r="BS8" s="77" t="str">
         <f t="shared" ref="BS8" si="10">IF(BS12="L",TEXT(BS9,"mmm"),"")</f>
         <v>déc</v>
       </c>
-      <c r="BT8" s="69"/>
-      <c r="BU8" s="69"/>
-      <c r="BV8" s="69"/>
-      <c r="BW8" s="69"/>
+      <c r="BT8" s="77"/>
+      <c r="BU8" s="77"/>
+      <c r="BV8" s="77"/>
+      <c r="BW8" s="77"/>
     </row>
     <row r="9" spans="1:81" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G9" s="1"/>
@@ -2813,326 +2825,326 @@
       <c r="M9" s="1"/>
       <c r="N9" s="2"/>
       <c r="O9" s="22"/>
-      <c r="P9" s="73">
+      <c r="P9" s="74">
         <f>WORKDAY(H8,N11,)</f>
         <v>45565</v>
       </c>
-      <c r="Q9" s="73">
+      <c r="Q9" s="74">
         <f>WORKDAY(P9,1)</f>
         <v>45566</v>
       </c>
-      <c r="R9" s="73">
+      <c r="R9" s="74">
         <f t="shared" ref="R9:BM9" si="11">WORKDAY(Q9,1)</f>
         <v>45567</v>
       </c>
-      <c r="S9" s="73">
+      <c r="S9" s="74">
         <f t="shared" si="11"/>
         <v>45568</v>
       </c>
-      <c r="T9" s="75">
+      <c r="T9" s="92">
         <f t="shared" si="11"/>
         <v>45569</v>
       </c>
-      <c r="U9" s="73">
+      <c r="U9" s="74">
         <f t="shared" si="11"/>
         <v>45572</v>
       </c>
-      <c r="V9" s="73">
+      <c r="V9" s="74">
         <f t="shared" si="11"/>
         <v>45573</v>
       </c>
-      <c r="W9" s="73">
+      <c r="W9" s="74">
         <f t="shared" si="11"/>
         <v>45574</v>
       </c>
-      <c r="X9" s="73">
+      <c r="X9" s="74">
         <f t="shared" si="11"/>
         <v>45575</v>
       </c>
-      <c r="Y9" s="73">
+      <c r="Y9" s="74">
         <f t="shared" si="11"/>
         <v>45576</v>
       </c>
-      <c r="Z9" s="73">
+      <c r="Z9" s="74">
         <f t="shared" si="11"/>
         <v>45579</v>
       </c>
-      <c r="AA9" s="73">
+      <c r="AA9" s="74">
         <f t="shared" si="11"/>
         <v>45580</v>
       </c>
-      <c r="AB9" s="73">
+      <c r="AB9" s="74">
         <f t="shared" si="11"/>
         <v>45581</v>
       </c>
-      <c r="AC9" s="73">
+      <c r="AC9" s="74">
         <f t="shared" si="11"/>
         <v>45582</v>
       </c>
-      <c r="AD9" s="73">
+      <c r="AD9" s="74">
         <f t="shared" si="11"/>
         <v>45583</v>
       </c>
-      <c r="AE9" s="73">
+      <c r="AE9" s="74">
         <f t="shared" si="11"/>
         <v>45586</v>
       </c>
-      <c r="AF9" s="73">
+      <c r="AF9" s="74">
         <f t="shared" si="11"/>
         <v>45587</v>
       </c>
-      <c r="AG9" s="73">
+      <c r="AG9" s="74">
         <f t="shared" si="11"/>
         <v>45588</v>
       </c>
-      <c r="AH9" s="73">
+      <c r="AH9" s="74">
         <f t="shared" si="11"/>
         <v>45589</v>
       </c>
-      <c r="AI9" s="73">
+      <c r="AI9" s="74">
         <f t="shared" si="11"/>
         <v>45590</v>
       </c>
-      <c r="AJ9" s="73">
+      <c r="AJ9" s="74">
         <f t="shared" si="11"/>
         <v>45593</v>
       </c>
-      <c r="AK9" s="73">
+      <c r="AK9" s="74">
         <f t="shared" si="11"/>
         <v>45594</v>
       </c>
-      <c r="AL9" s="73">
+      <c r="AL9" s="74">
         <f t="shared" si="11"/>
         <v>45595</v>
       </c>
-      <c r="AM9" s="73">
+      <c r="AM9" s="74">
         <f t="shared" si="11"/>
         <v>45596</v>
       </c>
-      <c r="AN9" s="73">
+      <c r="AN9" s="74">
         <f t="shared" si="11"/>
         <v>45597</v>
       </c>
-      <c r="AO9" s="73">
+      <c r="AO9" s="74">
         <f t="shared" si="11"/>
         <v>45600</v>
       </c>
-      <c r="AP9" s="73">
+      <c r="AP9" s="74">
         <f t="shared" si="11"/>
         <v>45601</v>
       </c>
-      <c r="AQ9" s="73">
+      <c r="AQ9" s="74">
         <f t="shared" si="11"/>
         <v>45602</v>
       </c>
-      <c r="AR9" s="73">
+      <c r="AR9" s="74">
         <f t="shared" si="11"/>
         <v>45603</v>
       </c>
-      <c r="AS9" s="73">
+      <c r="AS9" s="74">
         <f t="shared" si="11"/>
         <v>45604</v>
       </c>
-      <c r="AT9" s="73">
+      <c r="AT9" s="74">
         <f t="shared" si="11"/>
         <v>45607</v>
       </c>
-      <c r="AU9" s="73">
+      <c r="AU9" s="74">
         <f t="shared" si="11"/>
         <v>45608</v>
       </c>
-      <c r="AV9" s="73">
+      <c r="AV9" s="74">
         <f t="shared" si="11"/>
         <v>45609</v>
       </c>
-      <c r="AW9" s="73">
+      <c r="AW9" s="74">
         <f t="shared" si="11"/>
         <v>45610</v>
       </c>
-      <c r="AX9" s="73">
+      <c r="AX9" s="74">
         <f t="shared" si="11"/>
         <v>45611</v>
       </c>
-      <c r="AY9" s="73">
+      <c r="AY9" s="74">
         <f t="shared" si="11"/>
         <v>45614</v>
       </c>
-      <c r="AZ9" s="73">
+      <c r="AZ9" s="74">
         <f t="shared" si="11"/>
         <v>45615</v>
       </c>
-      <c r="BA9" s="73">
+      <c r="BA9" s="74">
         <f t="shared" si="11"/>
         <v>45616</v>
       </c>
-      <c r="BB9" s="73">
+      <c r="BB9" s="74">
         <f t="shared" si="11"/>
         <v>45617</v>
       </c>
-      <c r="BC9" s="73">
+      <c r="BC9" s="74">
         <f t="shared" si="11"/>
         <v>45618</v>
       </c>
-      <c r="BD9" s="73">
+      <c r="BD9" s="74">
         <f>WORKDAY(BC9,1)</f>
         <v>45621</v>
       </c>
-      <c r="BE9" s="73">
+      <c r="BE9" s="74">
         <f t="shared" si="11"/>
         <v>45622</v>
       </c>
-      <c r="BF9" s="73">
+      <c r="BF9" s="74">
         <f t="shared" si="11"/>
         <v>45623</v>
       </c>
-      <c r="BG9" s="73">
+      <c r="BG9" s="74">
         <f t="shared" si="11"/>
         <v>45624</v>
       </c>
-      <c r="BH9" s="73">
+      <c r="BH9" s="74">
         <f t="shared" si="11"/>
         <v>45625</v>
       </c>
-      <c r="BI9" s="73">
+      <c r="BI9" s="74">
         <f t="shared" si="11"/>
         <v>45628</v>
       </c>
-      <c r="BJ9" s="73">
+      <c r="BJ9" s="74">
         <f t="shared" si="11"/>
         <v>45629</v>
       </c>
-      <c r="BK9" s="73">
+      <c r="BK9" s="74">
         <f t="shared" si="11"/>
         <v>45630</v>
       </c>
-      <c r="BL9" s="73">
+      <c r="BL9" s="74">
         <f t="shared" si="11"/>
         <v>45631</v>
       </c>
-      <c r="BM9" s="73">
+      <c r="BM9" s="74">
         <f t="shared" si="11"/>
         <v>45632</v>
       </c>
-      <c r="BN9" s="73">
+      <c r="BN9" s="74">
         <f t="shared" ref="BN9" si="12">WORKDAY(BM9,1)</f>
         <v>45635</v>
       </c>
-      <c r="BO9" s="73">
+      <c r="BO9" s="74">
         <f t="shared" ref="BO9" si="13">WORKDAY(BN9,1)</f>
         <v>45636</v>
       </c>
-      <c r="BP9" s="73">
+      <c r="BP9" s="74">
         <f t="shared" ref="BP9" si="14">WORKDAY(BO9,1)</f>
         <v>45637</v>
       </c>
-      <c r="BQ9" s="73">
+      <c r="BQ9" s="74">
         <f t="shared" ref="BQ9" si="15">WORKDAY(BP9,1)</f>
         <v>45638</v>
       </c>
-      <c r="BR9" s="73">
+      <c r="BR9" s="74">
         <f t="shared" ref="BR9" si="16">WORKDAY(BQ9,1)</f>
         <v>45639</v>
       </c>
-      <c r="BS9" s="73">
+      <c r="BS9" s="74">
         <f t="shared" ref="BS9" si="17">WORKDAY(BR9,1)</f>
         <v>45642</v>
       </c>
-      <c r="BT9" s="73">
+      <c r="BT9" s="74">
         <f t="shared" ref="BT9" si="18">WORKDAY(BS9,1)</f>
         <v>45643</v>
       </c>
-      <c r="BU9" s="73">
+      <c r="BU9" s="74">
         <f t="shared" ref="BU9" si="19">WORKDAY(BT9,1)</f>
         <v>45644</v>
       </c>
-      <c r="BV9" s="73">
+      <c r="BV9" s="74">
         <f t="shared" ref="BV9" si="20">WORKDAY(BU9,1)</f>
         <v>45645</v>
       </c>
-      <c r="BW9" s="73">
+      <c r="BW9" s="74">
         <f t="shared" ref="BW9" si="21">WORKDAY(BV9,1)</f>
         <v>45646</v>
       </c>
     </row>
     <row r="10" spans="1:81" x14ac:dyDescent="0.25">
       <c r="B10" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="91" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="79" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="79"/>
-      <c r="E10" s="79"/>
-      <c r="F10" s="79"/>
-      <c r="G10" s="79"/>
-      <c r="H10" s="79"/>
-      <c r="I10" s="79"/>
-      <c r="J10" s="79"/>
-      <c r="K10" s="79"/>
-      <c r="L10" s="79"/>
+      <c r="D10" s="91"/>
+      <c r="E10" s="91"/>
+      <c r="F10" s="91"/>
+      <c r="G10" s="91"/>
+      <c r="H10" s="91"/>
+      <c r="I10" s="91"/>
+      <c r="J10" s="91"/>
+      <c r="K10" s="91"/>
+      <c r="L10" s="91"/>
       <c r="M10" s="1"/>
       <c r="N10" s="2"/>
       <c r="O10" s="22"/>
-      <c r="P10" s="74"/>
-      <c r="Q10" s="74"/>
-      <c r="R10" s="74"/>
-      <c r="S10" s="74"/>
-      <c r="T10" s="75"/>
-      <c r="U10" s="74"/>
-      <c r="V10" s="74"/>
-      <c r="W10" s="74"/>
-      <c r="X10" s="74"/>
-      <c r="Y10" s="74"/>
-      <c r="Z10" s="74"/>
-      <c r="AA10" s="74"/>
-      <c r="AB10" s="74"/>
-      <c r="AC10" s="74"/>
-      <c r="AD10" s="74"/>
-      <c r="AE10" s="74"/>
-      <c r="AF10" s="74"/>
-      <c r="AG10" s="74"/>
-      <c r="AH10" s="74"/>
-      <c r="AI10" s="74"/>
-      <c r="AJ10" s="74"/>
-      <c r="AK10" s="74"/>
-      <c r="AL10" s="74"/>
-      <c r="AM10" s="74"/>
-      <c r="AN10" s="74"/>
-      <c r="AO10" s="74"/>
-      <c r="AP10" s="74"/>
-      <c r="AQ10" s="74"/>
-      <c r="AR10" s="74"/>
-      <c r="AS10" s="74"/>
-      <c r="AT10" s="74"/>
-      <c r="AU10" s="74"/>
-      <c r="AV10" s="74"/>
-      <c r="AW10" s="74"/>
-      <c r="AX10" s="74"/>
-      <c r="AY10" s="74"/>
-      <c r="AZ10" s="74"/>
-      <c r="BA10" s="74"/>
-      <c r="BB10" s="74"/>
-      <c r="BC10" s="74"/>
-      <c r="BD10" s="74"/>
-      <c r="BE10" s="74"/>
-      <c r="BF10" s="74"/>
-      <c r="BG10" s="74"/>
-      <c r="BH10" s="74"/>
-      <c r="BI10" s="74"/>
-      <c r="BJ10" s="74"/>
-      <c r="BK10" s="74"/>
-      <c r="BL10" s="74"/>
-      <c r="BM10" s="74"/>
-      <c r="BN10" s="74"/>
-      <c r="BO10" s="74"/>
-      <c r="BP10" s="74"/>
-      <c r="BQ10" s="74"/>
-      <c r="BR10" s="74"/>
-      <c r="BS10" s="74"/>
-      <c r="BT10" s="74"/>
-      <c r="BU10" s="74"/>
-      <c r="BV10" s="74"/>
-      <c r="BW10" s="74"/>
+      <c r="P10" s="75"/>
+      <c r="Q10" s="75"/>
+      <c r="R10" s="75"/>
+      <c r="S10" s="75"/>
+      <c r="T10" s="92"/>
+      <c r="U10" s="75"/>
+      <c r="V10" s="75"/>
+      <c r="W10" s="75"/>
+      <c r="X10" s="75"/>
+      <c r="Y10" s="75"/>
+      <c r="Z10" s="75"/>
+      <c r="AA10" s="75"/>
+      <c r="AB10" s="75"/>
+      <c r="AC10" s="75"/>
+      <c r="AD10" s="75"/>
+      <c r="AE10" s="75"/>
+      <c r="AF10" s="75"/>
+      <c r="AG10" s="75"/>
+      <c r="AH10" s="75"/>
+      <c r="AI10" s="75"/>
+      <c r="AJ10" s="75"/>
+      <c r="AK10" s="75"/>
+      <c r="AL10" s="75"/>
+      <c r="AM10" s="75"/>
+      <c r="AN10" s="75"/>
+      <c r="AO10" s="75"/>
+      <c r="AP10" s="75"/>
+      <c r="AQ10" s="75"/>
+      <c r="AR10" s="75"/>
+      <c r="AS10" s="75"/>
+      <c r="AT10" s="75"/>
+      <c r="AU10" s="75"/>
+      <c r="AV10" s="75"/>
+      <c r="AW10" s="75"/>
+      <c r="AX10" s="75"/>
+      <c r="AY10" s="75"/>
+      <c r="AZ10" s="75"/>
+      <c r="BA10" s="75"/>
+      <c r="BB10" s="75"/>
+      <c r="BC10" s="75"/>
+      <c r="BD10" s="75"/>
+      <c r="BE10" s="75"/>
+      <c r="BF10" s="75"/>
+      <c r="BG10" s="75"/>
+      <c r="BH10" s="75"/>
+      <c r="BI10" s="75"/>
+      <c r="BJ10" s="75"/>
+      <c r="BK10" s="75"/>
+      <c r="BL10" s="75"/>
+      <c r="BM10" s="75"/>
+      <c r="BN10" s="75"/>
+      <c r="BO10" s="75"/>
+      <c r="BP10" s="75"/>
+      <c r="BQ10" s="75"/>
+      <c r="BR10" s="75"/>
+      <c r="BS10" s="75"/>
+      <c r="BT10" s="75"/>
+      <c r="BU10" s="75"/>
+      <c r="BV10" s="75"/>
+      <c r="BW10" s="75"/>
       <c r="BY10">
         <f>IF(BL9 =0, 1,0)</f>
         <v>0</v>
@@ -3167,66 +3179,66 @@
         <v>0</v>
       </c>
       <c r="O11" s="22"/>
-      <c r="P11" s="74"/>
-      <c r="Q11" s="74"/>
-      <c r="R11" s="74"/>
-      <c r="S11" s="74"/>
-      <c r="T11" s="75"/>
-      <c r="U11" s="74"/>
-      <c r="V11" s="74"/>
-      <c r="W11" s="74"/>
-      <c r="X11" s="74"/>
-      <c r="Y11" s="74"/>
-      <c r="Z11" s="74"/>
-      <c r="AA11" s="74"/>
-      <c r="AB11" s="74"/>
-      <c r="AC11" s="74"/>
-      <c r="AD11" s="74"/>
-      <c r="AE11" s="74"/>
-      <c r="AF11" s="74"/>
-      <c r="AG11" s="74"/>
-      <c r="AH11" s="74"/>
-      <c r="AI11" s="74"/>
-      <c r="AJ11" s="74"/>
-      <c r="AK11" s="74"/>
-      <c r="AL11" s="74"/>
-      <c r="AM11" s="74"/>
-      <c r="AN11" s="74"/>
-      <c r="AO11" s="74"/>
-      <c r="AP11" s="74"/>
-      <c r="AQ11" s="74"/>
-      <c r="AR11" s="74"/>
-      <c r="AS11" s="74"/>
-      <c r="AT11" s="74"/>
-      <c r="AU11" s="74"/>
-      <c r="AV11" s="74"/>
-      <c r="AW11" s="74"/>
-      <c r="AX11" s="74"/>
-      <c r="AY11" s="74"/>
-      <c r="AZ11" s="74"/>
-      <c r="BA11" s="74"/>
-      <c r="BB11" s="74"/>
-      <c r="BC11" s="74"/>
-      <c r="BD11" s="74"/>
-      <c r="BE11" s="74"/>
-      <c r="BF11" s="74"/>
-      <c r="BG11" s="74"/>
-      <c r="BH11" s="74"/>
-      <c r="BI11" s="74"/>
-      <c r="BJ11" s="74"/>
-      <c r="BK11" s="74"/>
-      <c r="BL11" s="74"/>
-      <c r="BM11" s="74"/>
-      <c r="BN11" s="74"/>
-      <c r="BO11" s="74"/>
-      <c r="BP11" s="74"/>
-      <c r="BQ11" s="74"/>
-      <c r="BR11" s="74"/>
-      <c r="BS11" s="74"/>
-      <c r="BT11" s="74"/>
-      <c r="BU11" s="74"/>
-      <c r="BV11" s="74"/>
-      <c r="BW11" s="74"/>
+      <c r="P11" s="75"/>
+      <c r="Q11" s="75"/>
+      <c r="R11" s="75"/>
+      <c r="S11" s="75"/>
+      <c r="T11" s="92"/>
+      <c r="U11" s="75"/>
+      <c r="V11" s="75"/>
+      <c r="W11" s="75"/>
+      <c r="X11" s="75"/>
+      <c r="Y11" s="75"/>
+      <c r="Z11" s="75"/>
+      <c r="AA11" s="75"/>
+      <c r="AB11" s="75"/>
+      <c r="AC11" s="75"/>
+      <c r="AD11" s="75"/>
+      <c r="AE11" s="75"/>
+      <c r="AF11" s="75"/>
+      <c r="AG11" s="75"/>
+      <c r="AH11" s="75"/>
+      <c r="AI11" s="75"/>
+      <c r="AJ11" s="75"/>
+      <c r="AK11" s="75"/>
+      <c r="AL11" s="75"/>
+      <c r="AM11" s="75"/>
+      <c r="AN11" s="75"/>
+      <c r="AO11" s="75"/>
+      <c r="AP11" s="75"/>
+      <c r="AQ11" s="75"/>
+      <c r="AR11" s="75"/>
+      <c r="AS11" s="75"/>
+      <c r="AT11" s="75"/>
+      <c r="AU11" s="75"/>
+      <c r="AV11" s="75"/>
+      <c r="AW11" s="75"/>
+      <c r="AX11" s="75"/>
+      <c r="AY11" s="75"/>
+      <c r="AZ11" s="75"/>
+      <c r="BA11" s="75"/>
+      <c r="BB11" s="75"/>
+      <c r="BC11" s="75"/>
+      <c r="BD11" s="75"/>
+      <c r="BE11" s="75"/>
+      <c r="BF11" s="75"/>
+      <c r="BG11" s="75"/>
+      <c r="BH11" s="75"/>
+      <c r="BI11" s="75"/>
+      <c r="BJ11" s="75"/>
+      <c r="BK11" s="75"/>
+      <c r="BL11" s="75"/>
+      <c r="BM11" s="75"/>
+      <c r="BN11" s="75"/>
+      <c r="BO11" s="75"/>
+      <c r="BP11" s="75"/>
+      <c r="BQ11" s="75"/>
+      <c r="BR11" s="75"/>
+      <c r="BS11" s="75"/>
+      <c r="BT11" s="75"/>
+      <c r="BU11" s="75"/>
+      <c r="BV11" s="75"/>
+      <c r="BW11" s="75"/>
       <c r="CB11" cm="1">
         <f t="array" aca="1" ref="CB11" ca="1">IF((ISNUMBER(FIND(LOWER('Parametre Gantt'!$A$3), LOWER($B15)))),CELL("couleur",'Parametre Gantt'!$B$3),0)</f>
         <v>0</v>
@@ -3238,23 +3250,23 @@
     </row>
     <row r="12" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A12" s="42"/>
-      <c r="B12" s="78" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="78"/>
-      <c r="D12" s="78"/>
-      <c r="E12" s="78"/>
+      <c r="B12" s="90" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="90"/>
+      <c r="D12" s="90"/>
+      <c r="E12" s="90"/>
       <c r="F12" s="50"/>
-      <c r="G12" s="87" t="s">
-        <v>7</v>
-      </c>
-      <c r="H12" s="88"/>
+      <c r="G12" s="67" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="68"/>
       <c r="I12" s="19"/>
       <c r="J12" s="6"/>
-      <c r="K12" s="89" t="s">
-        <v>8</v>
-      </c>
-      <c r="L12" s="90"/>
+      <c r="K12" s="69" t="s">
+        <v>7</v>
+      </c>
+      <c r="L12" s="70"/>
       <c r="M12" s="19"/>
       <c r="N12" s="6"/>
       <c r="O12" s="23"/>
@@ -3510,133 +3522,133 @@
     <row r="13" spans="1:81" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="41"/>
       <c r="B13" s="37" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13" s="26"/>
       <c r="E13" s="32" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F13" s="51"/>
       <c r="G13" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="H13" s="33" t="s">
         <v>3</v>
-      </c>
-      <c r="H13" s="33" t="s">
-        <v>4</v>
       </c>
       <c r="I13" s="20"/>
       <c r="J13" s="35" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K13" s="33" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L13" s="34" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M13" s="19"/>
       <c r="N13" s="35" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O13" s="23"/>
-      <c r="P13" s="70">
+      <c r="P13" s="85">
         <f>WEEKNUM(P9,11)</f>
         <v>40</v>
       </c>
-      <c r="Q13" s="71"/>
-      <c r="R13" s="71"/>
-      <c r="S13" s="71"/>
-      <c r="T13" s="71"/>
-      <c r="U13" s="70">
+      <c r="Q13" s="86"/>
+      <c r="R13" s="86"/>
+      <c r="S13" s="86"/>
+      <c r="T13" s="86"/>
+      <c r="U13" s="85">
         <f>WEEKNUM(U9,11)</f>
         <v>41</v>
       </c>
-      <c r="V13" s="71"/>
-      <c r="W13" s="71"/>
-      <c r="X13" s="71"/>
-      <c r="Y13" s="71"/>
-      <c r="Z13" s="70">
+      <c r="V13" s="86"/>
+      <c r="W13" s="86"/>
+      <c r="X13" s="86"/>
+      <c r="Y13" s="86"/>
+      <c r="Z13" s="85">
         <f t="shared" ref="Z13" si="24">WEEKNUM(Z9,11)</f>
         <v>42</v>
       </c>
-      <c r="AA13" s="71"/>
-      <c r="AB13" s="71"/>
-      <c r="AC13" s="71"/>
-      <c r="AD13" s="71"/>
-      <c r="AE13" s="70">
+      <c r="AA13" s="86"/>
+      <c r="AB13" s="86"/>
+      <c r="AC13" s="86"/>
+      <c r="AD13" s="86"/>
+      <c r="AE13" s="85">
         <f t="shared" ref="AE13" si="25">WEEKNUM(AE9,11)</f>
         <v>43</v>
       </c>
-      <c r="AF13" s="71"/>
-      <c r="AG13" s="71"/>
-      <c r="AH13" s="71"/>
-      <c r="AI13" s="71"/>
-      <c r="AJ13" s="70">
+      <c r="AF13" s="86"/>
+      <c r="AG13" s="86"/>
+      <c r="AH13" s="86"/>
+      <c r="AI13" s="86"/>
+      <c r="AJ13" s="85">
         <f t="shared" ref="AJ13" si="26">WEEKNUM(AJ9,11)</f>
         <v>44</v>
       </c>
-      <c r="AK13" s="71"/>
-      <c r="AL13" s="71"/>
-      <c r="AM13" s="71"/>
-      <c r="AN13" s="71"/>
-      <c r="AO13" s="70">
+      <c r="AK13" s="86"/>
+      <c r="AL13" s="86"/>
+      <c r="AM13" s="86"/>
+      <c r="AN13" s="86"/>
+      <c r="AO13" s="85">
         <f t="shared" ref="AO13" si="27">WEEKNUM(AO9,11)</f>
         <v>45</v>
       </c>
-      <c r="AP13" s="71"/>
-      <c r="AQ13" s="71"/>
-      <c r="AR13" s="71"/>
-      <c r="AS13" s="71"/>
-      <c r="AT13" s="70">
+      <c r="AP13" s="86"/>
+      <c r="AQ13" s="86"/>
+      <c r="AR13" s="86"/>
+      <c r="AS13" s="86"/>
+      <c r="AT13" s="85">
         <f t="shared" ref="AT13" si="28">WEEKNUM(AT9,11)</f>
         <v>46</v>
       </c>
-      <c r="AU13" s="71"/>
-      <c r="AV13" s="71"/>
-      <c r="AW13" s="71"/>
-      <c r="AX13" s="71"/>
-      <c r="AY13" s="70">
+      <c r="AU13" s="86"/>
+      <c r="AV13" s="86"/>
+      <c r="AW13" s="86"/>
+      <c r="AX13" s="86"/>
+      <c r="AY13" s="85">
         <f t="shared" ref="AY13" si="29">WEEKNUM(AY9,11)</f>
         <v>47</v>
       </c>
-      <c r="AZ13" s="71"/>
-      <c r="BA13" s="71"/>
-      <c r="BB13" s="71"/>
-      <c r="BC13" s="71"/>
-      <c r="BD13" s="70">
+      <c r="AZ13" s="86"/>
+      <c r="BA13" s="86"/>
+      <c r="BB13" s="86"/>
+      <c r="BC13" s="86"/>
+      <c r="BD13" s="85">
         <f t="shared" ref="BD13" si="30">WEEKNUM(BD9,11)</f>
         <v>48</v>
       </c>
-      <c r="BE13" s="71"/>
-      <c r="BF13" s="71"/>
-      <c r="BG13" s="71"/>
-      <c r="BH13" s="71"/>
-      <c r="BI13" s="70">
+      <c r="BE13" s="86"/>
+      <c r="BF13" s="86"/>
+      <c r="BG13" s="86"/>
+      <c r="BH13" s="86"/>
+      <c r="BI13" s="85">
         <f t="shared" ref="BI13" si="31">WEEKNUM(BI9,11)</f>
         <v>49</v>
       </c>
-      <c r="BJ13" s="71"/>
-      <c r="BK13" s="71"/>
-      <c r="BL13" s="71"/>
-      <c r="BM13" s="71"/>
-      <c r="BN13" s="70">
+      <c r="BJ13" s="86"/>
+      <c r="BK13" s="86"/>
+      <c r="BL13" s="86"/>
+      <c r="BM13" s="86"/>
+      <c r="BN13" s="85">
         <f t="shared" ref="BN13" si="32">WEEKNUM(BN9,11)</f>
         <v>50</v>
       </c>
-      <c r="BO13" s="71"/>
-      <c r="BP13" s="71"/>
-      <c r="BQ13" s="71"/>
-      <c r="BR13" s="71"/>
-      <c r="BS13" s="70">
+      <c r="BO13" s="86"/>
+      <c r="BP13" s="86"/>
+      <c r="BQ13" s="86"/>
+      <c r="BR13" s="86"/>
+      <c r="BS13" s="85">
         <f t="shared" ref="BS13" si="33">WEEKNUM(BS9,11)</f>
         <v>51</v>
       </c>
-      <c r="BT13" s="71"/>
-      <c r="BU13" s="71"/>
-      <c r="BV13" s="71"/>
-      <c r="BW13" s="71"/>
+      <c r="BT13" s="86"/>
+      <c r="BU13" s="86"/>
+      <c r="BV13" s="86"/>
+      <c r="BW13" s="86"/>
       <c r="CB13" cm="1">
         <f t="array" aca="1" ref="CB13" ca="1">IF((ISNUMBER(FIND(LOWER('Parametre Gantt'!$A$3), LOWER($B17)))),CELL("couleur",'Parametre Gantt'!$B$3),0)</f>
         <v>0</v>
@@ -3652,10 +3664,10 @@
         <v>1</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C14" s="17">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D14" s="28">
         <f>IF(E14&lt;&gt;"",_xlfn.XLOOKUP(E14,'Parametre Gantt'!$G$3:$G$13,'Parametre Gantt'!$F$3:$F$13,""),0)</f>
@@ -3667,26 +3679,26 @@
         <v>0</v>
       </c>
       <c r="G14" s="18">
-        <v>45575</v>
+        <v>45568</v>
       </c>
       <c r="H14" s="18">
-        <v>45580</v>
+        <v>45568</v>
       </c>
       <c r="I14" s="21"/>
       <c r="J14" s="36">
         <f t="shared" ref="J14:J19" si="34">IF(LOWER(B14)="formation","/",IF(AND(G14&lt;&gt;"",H14&lt;&gt;""),NETWORKDAYS(G14,H14),""))</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K14" s="18">
-        <v>45576</v>
+        <v>45568</v>
       </c>
       <c r="L14" s="18">
-        <v>45590</v>
+        <v>45568</v>
       </c>
       <c r="M14" s="27"/>
       <c r="N14" s="36">
         <f t="shared" ref="N14:N19" si="35">IF(LOWER(B14)="formation","/",IF(AND(K14&lt;&gt;"",L14&lt;&gt;""),NETWORKDAYS(K14,L14),""))</f>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="O14" s="24"/>
       <c r="P14" s="4"/>
@@ -3764,9 +3776,7 @@
         <v/>
       </c>
       <c r="B15" s="16"/>
-      <c r="C15" s="17">
-        <v>1</v>
-      </c>
+      <c r="C15" s="17"/>
       <c r="D15" s="28">
         <f>IF(E15&lt;&gt;"",_xlfn.XLOOKUP(E15,'Parametre Gantt'!$G$3:$G$13,'Parametre Gantt'!$F$3:$F$13,""),0)</f>
         <v>0</v>
@@ -3866,9 +3876,7 @@
         <v/>
       </c>
       <c r="B16" s="16"/>
-      <c r="C16" s="17">
-        <v>1</v>
-      </c>
+      <c r="C16" s="17"/>
       <c r="D16" s="28">
         <f>IF(E16&lt;&gt;"",_xlfn.XLOOKUP(E16,'Parametre Gantt'!$G$3:$G$13,'Parametre Gantt'!$F$3:$F$13,""),0)</f>
         <v>0</v>
@@ -3968,9 +3976,7 @@
         <v/>
       </c>
       <c r="B17" s="16"/>
-      <c r="C17" s="17">
-        <v>1</v>
-      </c>
+      <c r="C17" s="17"/>
       <c r="D17" s="28">
         <f>IF(E17&lt;&gt;"",_xlfn.XLOOKUP(E17,'Parametre Gantt'!$G$3:$G$13,'Parametre Gantt'!$F$3:$F$13,""),0)</f>
         <v>0</v>
@@ -4070,9 +4076,7 @@
         <v/>
       </c>
       <c r="B18" s="16"/>
-      <c r="C18" s="17">
-        <v>1</v>
-      </c>
+      <c r="C18" s="17"/>
       <c r="D18" s="28">
         <f>IF(E18&lt;&gt;"",_xlfn.XLOOKUP(E18,'Parametre Gantt'!$G$3:$G$13,'Parametre Gantt'!$F$3:$F$13,""),0)</f>
         <v>0</v>
@@ -4168,9 +4172,7 @@
         <v/>
       </c>
       <c r="B19" s="16"/>
-      <c r="C19" s="17">
-        <v>1</v>
-      </c>
+      <c r="C19" s="17"/>
       <c r="D19" s="28">
         <f>IF(E19&lt;&gt;"",_xlfn.XLOOKUP(E19,'Parametre Gantt'!$G$3:$G$13,'Parametre Gantt'!$F$3:$F$13,""),0)</f>
         <v>0</v>
@@ -4266,9 +4268,7 @@
         <v/>
       </c>
       <c r="B20" s="16"/>
-      <c r="C20" s="17">
-        <v>1</v>
-      </c>
+      <c r="C20" s="17"/>
       <c r="D20" s="28">
         <f>IF(E20&lt;&gt;"",_xlfn.XLOOKUP(E20,'Parametre Gantt'!$G$3:$G$13,'Parametre Gantt'!$F$3:$F$13,""),0)</f>
         <v>0</v>
@@ -4364,9 +4364,7 @@
         <v/>
       </c>
       <c r="B21" s="16"/>
-      <c r="C21" s="17">
-        <v>1</v>
-      </c>
+      <c r="C21" s="17"/>
       <c r="D21" s="28">
         <f>IF(E21&lt;&gt;"",_xlfn.XLOOKUP(E21,'Parametre Gantt'!$G$3:$G$13,'Parametre Gantt'!$F$3:$F$13,""),0)</f>
         <v>0</v>
@@ -4462,9 +4460,7 @@
         <v/>
       </c>
       <c r="B22" s="16"/>
-      <c r="C22" s="17">
-        <v>1</v>
-      </c>
+      <c r="C22" s="17"/>
       <c r="D22" s="28">
         <f>IF(E22&lt;&gt;"",_xlfn.XLOOKUP(E22,'Parametre Gantt'!$G$3:$G$13,'Parametre Gantt'!$F$3:$F$13,""),0)</f>
         <v>0</v>
@@ -4560,9 +4556,7 @@
         <v/>
       </c>
       <c r="B23" s="16"/>
-      <c r="C23" s="17">
-        <v>1</v>
-      </c>
+      <c r="C23" s="17"/>
       <c r="D23" s="28">
         <f>IF(E23&lt;&gt;"",_xlfn.XLOOKUP(E23,'Parametre Gantt'!$G$3:$G$13,'Parametre Gantt'!$F$3:$F$13,""),0)</f>
         <v>0</v>
@@ -4654,9 +4648,7 @@
         <v/>
       </c>
       <c r="B24" s="16"/>
-      <c r="C24" s="17">
-        <v>0.6</v>
-      </c>
+      <c r="C24" s="17"/>
       <c r="D24" s="28">
         <f>IF(E24&lt;&gt;"",_xlfn.XLOOKUP(E24,'Parametre Gantt'!$G$3:$G$13,'Parametre Gantt'!$F$3:$F$13,""),0)</f>
         <v>0</v>
@@ -4752,9 +4744,7 @@
         <v/>
       </c>
       <c r="B25" s="16"/>
-      <c r="C25" s="17">
-        <v>1</v>
-      </c>
+      <c r="C25" s="17"/>
       <c r="D25" s="28">
         <f>IF(E25&lt;&gt;"",_xlfn.XLOOKUP(E25,'Parametre Gantt'!$G$3:$G$13,'Parametre Gantt'!$F$3:$F$13,""),0)</f>
         <v>0</v>
@@ -4846,9 +4836,7 @@
         <v/>
       </c>
       <c r="B26" s="16"/>
-      <c r="C26" s="17">
-        <v>1</v>
-      </c>
+      <c r="C26" s="17"/>
       <c r="D26" s="28">
         <f>IF(E26&lt;&gt;"",_xlfn.XLOOKUP(E26,'Parametre Gantt'!$G$3:$G$13,'Parametre Gantt'!$F$3:$F$13,""),0)</f>
         <v>0</v>
@@ -4944,9 +4932,7 @@
         <v/>
       </c>
       <c r="B27" s="16"/>
-      <c r="C27" s="17">
-        <v>1</v>
-      </c>
+      <c r="C27" s="17"/>
       <c r="D27" s="28">
         <f>IF(E27&lt;&gt;"",_xlfn.XLOOKUP(E27,'Parametre Gantt'!$G$3:$G$13,'Parametre Gantt'!$F$3:$F$13,""),0)</f>
         <v>0</v>
@@ -5042,9 +5028,7 @@
         <v/>
       </c>
       <c r="B28" s="16"/>
-      <c r="C28" s="17">
-        <v>0</v>
-      </c>
+      <c r="C28" s="17"/>
       <c r="D28" s="28">
         <f>IF(E28&lt;&gt;"",_xlfn.XLOOKUP(E28,'Parametre Gantt'!$G$3:$G$13,'Parametre Gantt'!$F$3:$F$13,""),0)</f>
         <v>0</v>
@@ -5136,9 +5120,7 @@
         <v/>
       </c>
       <c r="B29" s="16"/>
-      <c r="C29" s="17">
-        <v>1</v>
-      </c>
+      <c r="C29" s="17"/>
       <c r="D29" s="28"/>
       <c r="E29" s="17"/>
       <c r="F29" s="59"/>
@@ -5224,9 +5206,7 @@
         <v/>
       </c>
       <c r="B30" s="16"/>
-      <c r="C30" s="17">
-        <v>0</v>
-      </c>
+      <c r="C30" s="17"/>
       <c r="D30" s="28">
         <f>IF(E30&lt;&gt;"",_xlfn.XLOOKUP(E30,'Parametre Gantt'!$G$3:$G$13,'Parametre Gantt'!$F$3:$F$13,""),0)</f>
         <v>0</v>
@@ -5322,9 +5302,7 @@
         <v/>
       </c>
       <c r="B31" s="16"/>
-      <c r="C31" s="17">
-        <v>0.1</v>
-      </c>
+      <c r="C31" s="17"/>
       <c r="D31" s="28">
         <f>IF(E31&lt;&gt;"",_xlfn.XLOOKUP(E31,'Parametre Gantt'!$G$3:$G$13,'Parametre Gantt'!$F$3:$F$13,""),0)</f>
         <v>0</v>
@@ -5512,9 +5490,7 @@
         <v/>
       </c>
       <c r="B33" s="16"/>
-      <c r="C33" s="17">
-        <v>0.5</v>
-      </c>
+      <c r="C33" s="17"/>
       <c r="D33" s="28">
         <f>IF(E33&lt;&gt;"",_xlfn.XLOOKUP(E33,'Parametre Gantt'!$G$3:$G$13,'Parametre Gantt'!$F$3:$F$13,""),0)</f>
         <v>0</v>
@@ -5606,9 +5582,7 @@
         <v/>
       </c>
       <c r="B34" s="16"/>
-      <c r="C34" s="17">
-        <v>0</v>
-      </c>
+      <c r="C34" s="17"/>
       <c r="D34" s="28">
         <f>IF(E34&lt;&gt;"",_xlfn.XLOOKUP(E34,'Parametre Gantt'!$G$3:$G$13,'Parametre Gantt'!$F$3:$F$13,""),0)</f>
         <v>0</v>
@@ -5700,9 +5674,7 @@
         <v/>
       </c>
       <c r="B35" s="16"/>
-      <c r="C35" s="17">
-        <v>0</v>
-      </c>
+      <c r="C35" s="17"/>
       <c r="D35" s="28">
         <f>IF(E35&lt;&gt;"",_xlfn.XLOOKUP(E35,'Parametre Gantt'!$G$3:$G$13,'Parametre Gantt'!$F$3:$F$13,""),0)</f>
         <v>0</v>
@@ -7716,7 +7688,7 @@
       <c r="I58" s="53"/>
       <c r="J58" s="56">
         <f>SUM(J14:J57)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K58" s="53"/>
       <c r="L58" s="53"/>
@@ -7726,7 +7698,7 @@
       </c>
       <c r="N58" s="56">
         <f>SUM(N14:N57)</f>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="O58" s="53"/>
       <c r="P58" s="57" t="str">
@@ -7975,6 +7947,85 @@
     </row>
   </sheetData>
   <mergeCells count="103">
+    <mergeCell ref="Y4:AB4"/>
+    <mergeCell ref="AC4:AH4"/>
+    <mergeCell ref="P6:X6"/>
+    <mergeCell ref="Y6:AC6"/>
+    <mergeCell ref="BS8:BW8"/>
+    <mergeCell ref="BN13:BR13"/>
+    <mergeCell ref="BS13:BW13"/>
+    <mergeCell ref="H2:T3"/>
+    <mergeCell ref="BR6:BS6"/>
+    <mergeCell ref="V9:V11"/>
+    <mergeCell ref="W9:W11"/>
+    <mergeCell ref="X9:X11"/>
+    <mergeCell ref="AH9:AH11"/>
+    <mergeCell ref="AT13:AX13"/>
+    <mergeCell ref="AY13:BC13"/>
+    <mergeCell ref="BH9:BH11"/>
+    <mergeCell ref="AV9:AV11"/>
+    <mergeCell ref="AW9:AW11"/>
+    <mergeCell ref="AX9:AX11"/>
+    <mergeCell ref="AY9:AY11"/>
+    <mergeCell ref="BD13:BH13"/>
+    <mergeCell ref="AT9:AT11"/>
+    <mergeCell ref="BI13:BM13"/>
+    <mergeCell ref="AJ8:AN8"/>
+    <mergeCell ref="BP9:BP11"/>
+    <mergeCell ref="BQ9:BQ11"/>
+    <mergeCell ref="BR9:BR11"/>
+    <mergeCell ref="Y9:Y11"/>
+    <mergeCell ref="Z9:Z11"/>
+    <mergeCell ref="AA9:AA11"/>
+    <mergeCell ref="AB9:AB11"/>
+    <mergeCell ref="AC9:AC11"/>
+    <mergeCell ref="T9:T11"/>
+    <mergeCell ref="U9:U11"/>
+    <mergeCell ref="BI9:BI11"/>
+    <mergeCell ref="P13:T13"/>
+    <mergeCell ref="U13:Y13"/>
+    <mergeCell ref="Z13:AD13"/>
+    <mergeCell ref="AE13:AI13"/>
+    <mergeCell ref="AJ13:AN13"/>
+    <mergeCell ref="AO13:AS13"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="P9:P11"/>
+    <mergeCell ref="Q9:Q11"/>
+    <mergeCell ref="R9:R11"/>
+    <mergeCell ref="S9:S11"/>
+    <mergeCell ref="AD9:AD11"/>
+    <mergeCell ref="AE9:AE11"/>
+    <mergeCell ref="AF9:AF11"/>
+    <mergeCell ref="AG9:AG11"/>
+    <mergeCell ref="P8:T8"/>
+    <mergeCell ref="U8:Y8"/>
+    <mergeCell ref="Z8:AD8"/>
+    <mergeCell ref="AE8:AI8"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="C10:L10"/>
+    <mergeCell ref="BI8:BM8"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="BK9:BK11"/>
+    <mergeCell ref="BL9:BL11"/>
+    <mergeCell ref="BM9:BM11"/>
+    <mergeCell ref="AZ9:AZ11"/>
+    <mergeCell ref="AU9:AU11"/>
+    <mergeCell ref="AJ9:AJ11"/>
+    <mergeCell ref="AK9:AK11"/>
+    <mergeCell ref="AL9:AL11"/>
+    <mergeCell ref="AM9:AM11"/>
+    <mergeCell ref="AN9:AN11"/>
+    <mergeCell ref="BJ9:BJ11"/>
+    <mergeCell ref="BA9:BA11"/>
+    <mergeCell ref="BB9:BB11"/>
+    <mergeCell ref="AO8:AS8"/>
+    <mergeCell ref="AT8:AX8"/>
+    <mergeCell ref="AY8:BC8"/>
+    <mergeCell ref="P5:X5"/>
+    <mergeCell ref="Y5:AB5"/>
+    <mergeCell ref="AC5:AH5"/>
+    <mergeCell ref="AL5:BK5"/>
     <mergeCell ref="B2:E3"/>
     <mergeCell ref="G12:H12"/>
     <mergeCell ref="K12:L12"/>
@@ -7999,85 +8050,6 @@
     <mergeCell ref="BN8:BR8"/>
     <mergeCell ref="BN9:BN11"/>
     <mergeCell ref="BO9:BO11"/>
-    <mergeCell ref="BI8:BM8"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="BK9:BK11"/>
-    <mergeCell ref="BL9:BL11"/>
-    <mergeCell ref="BM9:BM11"/>
-    <mergeCell ref="AZ9:AZ11"/>
-    <mergeCell ref="AU9:AU11"/>
-    <mergeCell ref="AJ9:AJ11"/>
-    <mergeCell ref="AK9:AK11"/>
-    <mergeCell ref="AL9:AL11"/>
-    <mergeCell ref="AM9:AM11"/>
-    <mergeCell ref="AN9:AN11"/>
-    <mergeCell ref="BJ9:BJ11"/>
-    <mergeCell ref="BA9:BA11"/>
-    <mergeCell ref="BB9:BB11"/>
-    <mergeCell ref="AO8:AS8"/>
-    <mergeCell ref="AT8:AX8"/>
-    <mergeCell ref="AY8:BC8"/>
-    <mergeCell ref="P5:X5"/>
-    <mergeCell ref="Y5:AB5"/>
-    <mergeCell ref="AC5:AH5"/>
-    <mergeCell ref="AL5:BK5"/>
-    <mergeCell ref="P13:T13"/>
-    <mergeCell ref="U13:Y13"/>
-    <mergeCell ref="Z13:AD13"/>
-    <mergeCell ref="AE13:AI13"/>
-    <mergeCell ref="AJ13:AN13"/>
-    <mergeCell ref="AO13:AS13"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="P9:P11"/>
-    <mergeCell ref="Q9:Q11"/>
-    <mergeCell ref="R9:R11"/>
-    <mergeCell ref="S9:S11"/>
-    <mergeCell ref="AD9:AD11"/>
-    <mergeCell ref="AE9:AE11"/>
-    <mergeCell ref="AF9:AF11"/>
-    <mergeCell ref="AG9:AG11"/>
-    <mergeCell ref="P8:T8"/>
-    <mergeCell ref="U8:Y8"/>
-    <mergeCell ref="Z8:AD8"/>
-    <mergeCell ref="AE8:AI8"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="C10:L10"/>
-    <mergeCell ref="BP9:BP11"/>
-    <mergeCell ref="BQ9:BQ11"/>
-    <mergeCell ref="BR9:BR11"/>
-    <mergeCell ref="Y9:Y11"/>
-    <mergeCell ref="Z9:Z11"/>
-    <mergeCell ref="AA9:AA11"/>
-    <mergeCell ref="AB9:AB11"/>
-    <mergeCell ref="AC9:AC11"/>
-    <mergeCell ref="T9:T11"/>
-    <mergeCell ref="U9:U11"/>
-    <mergeCell ref="BI9:BI11"/>
-    <mergeCell ref="Y4:AB4"/>
-    <mergeCell ref="AC4:AH4"/>
-    <mergeCell ref="P6:X6"/>
-    <mergeCell ref="Y6:AC6"/>
-    <mergeCell ref="BS8:BW8"/>
-    <mergeCell ref="BN13:BR13"/>
-    <mergeCell ref="BS13:BW13"/>
-    <mergeCell ref="H2:T3"/>
-    <mergeCell ref="BR6:BS6"/>
-    <mergeCell ref="V9:V11"/>
-    <mergeCell ref="W9:W11"/>
-    <mergeCell ref="X9:X11"/>
-    <mergeCell ref="AH9:AH11"/>
-    <mergeCell ref="AT13:AX13"/>
-    <mergeCell ref="AY13:BC13"/>
-    <mergeCell ref="BH9:BH11"/>
-    <mergeCell ref="AV9:AV11"/>
-    <mergeCell ref="AW9:AW11"/>
-    <mergeCell ref="AX9:AX11"/>
-    <mergeCell ref="AY9:AY11"/>
-    <mergeCell ref="BD13:BH13"/>
-    <mergeCell ref="AT9:AT11"/>
-    <mergeCell ref="BI13:BM13"/>
-    <mergeCell ref="AJ8:AN8"/>
   </mergeCells>
   <conditionalFormatting sqref="A14:A57">
     <cfRule type="expression" dxfId="31" priority="68">
@@ -8422,7 +8394,7 @@
   <dimension ref="A2:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8436,22 +8408,22 @@
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="9" t="s">
+      <c r="I2" s="9" t="s">
         <v>13</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -8460,16 +8432,16 @@
         <v>ELEC</v>
       </c>
       <c r="B3" s="60" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F3" s="9">
         <v>1</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
@@ -8480,16 +8452,16 @@
         <v>MECA</v>
       </c>
       <c r="B4" s="61" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F4" s="9">
         <v>2</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
@@ -8500,15 +8472,17 @@
         <v>AUTO</v>
       </c>
       <c r="B5" s="62" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F5" s="9">
         <v>3</v>
       </c>
-      <c r="G5" s="9"/>
+      <c r="G5" s="9" t="s">
+        <v>38</v>
+      </c>
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
     </row>
@@ -8518,13 +8492,15 @@
         <v>0</v>
       </c>
       <c r="B6" s="63" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" s="9"/>
       <c r="F6" s="9">
         <v>4</v>
       </c>
-      <c r="G6" s="9"/>
+      <c r="G6" s="9" t="s">
+        <v>39</v>
+      </c>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
     </row>
@@ -8532,7 +8508,9 @@
       <c r="F7" s="9">
         <v>5</v>
       </c>
-      <c r="G7" s="9"/>
+      <c r="G7" s="9" t="s">
+        <v>40</v>
+      </c>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
     </row>
@@ -8540,7 +8518,9 @@
       <c r="F8" s="9">
         <v>6</v>
       </c>
-      <c r="G8" s="9"/>
+      <c r="G8" s="9" t="s">
+        <v>41</v>
+      </c>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
     </row>
